--- a/excel/src/test/resources/person.xlsx
+++ b/excel/src/test/resources/person.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -487,6 +487,17 @@
         <v>30000.26</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
